--- a/tut06/output/attendance_report_consolidated.xlsx
+++ b/tut06/output/attendance_report_consolidated.xlsx
@@ -446,97 +446,97 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>28/07/2022</t>
+          <t>28-07-2022</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>01/08/2022</t>
+          <t>01-08-2022</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>04/08/2022</t>
+          <t>04-08-2022</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>08/08/2022</t>
+          <t>08-08-2022</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>11/08/2022</t>
+          <t>11-08-2022</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>15/08/2022</t>
+          <t>15-08-2022</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>18/08/2022</t>
+          <t>18-08-2022</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>22/08/2022</t>
+          <t>22-08-2022</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>25/08/2022</t>
+          <t>25-08-2022</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>29/08/2022</t>
+          <t>29-08-2022</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>01/09/2022</t>
+          <t>01-09-2022</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>05/09/2022</t>
+          <t>05-09-2022</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>08/09/2022</t>
+          <t>08-09-2022</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>12/09/2022</t>
+          <t>12-09-2022</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>15/09/2022</t>
+          <t>15-09-2022</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>19/09/2022</t>
+          <t>19-09-2022</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>22/09/2022</t>
+          <t>22-09-2022</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>26/09/2022</t>
+          <t>26-09-2022</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>29/09/2022</t>
+          <t>29-09-2022</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
@@ -573,17 +573,17 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -608,7 +608,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -623,7 +623,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -653,7 +653,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
@@ -665,10 +665,10 @@
         <v>19</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>31.58</v>
       </c>
     </row>
     <row r="3">
@@ -689,17 +689,17 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -719,22 +719,22 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -744,12 +744,12 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
@@ -781,10 +781,10 @@
         <v>19</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>52.63</v>
       </c>
     </row>
     <row r="4">
@@ -926,7 +926,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -936,7 +936,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -966,7 +966,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -976,7 +976,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -1013,10 +1013,10 @@
         <v>19</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>26.32</v>
       </c>
     </row>
     <row r="6">
@@ -1037,17 +1037,17 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -1072,12 +1072,12 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -1129,10 +1129,10 @@
         <v>19</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>26.32</v>
       </c>
     </row>
     <row r="7">
@@ -1304,12 +1304,12 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -1329,7 +1329,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
@@ -1361,10 +1361,10 @@
         <v>19</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>21.05</v>
       </c>
     </row>
     <row r="9">
@@ -1385,22 +1385,22 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -1415,12 +1415,12 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1430,17 +1430,17 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -1470,17 +1470,17 @@
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="V9" t="n">
         <v>19</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>52.63</v>
       </c>
     </row>
     <row r="10">
@@ -1536,27 +1536,27 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -1593,10 +1593,10 @@
         <v>19</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>26.32</v>
       </c>
     </row>
     <row r="11">
@@ -1617,7 +1617,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -1667,7 +1667,7 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1709,10 +1709,10 @@
         <v>19</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>15.79</v>
       </c>
     </row>
     <row r="12">
@@ -1733,17 +1733,17 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1763,37 +1763,37 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
@@ -1813,7 +1813,7 @@
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
@@ -1825,10 +1825,10 @@
         <v>19</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>57.89</v>
       </c>
     </row>
     <row r="13">
@@ -1884,7 +1884,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1894,7 +1894,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1941,10 +1941,10 @@
         <v>19</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>10.53</v>
       </c>
     </row>
     <row r="14">
@@ -1965,12 +1965,12 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -2045,7 +2045,7 @@
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
@@ -2057,10 +2057,10 @@
         <v>19</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>15.79</v>
       </c>
     </row>
     <row r="15">
@@ -2081,17 +2081,17 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -2111,37 +2111,37 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
@@ -2161,7 +2161,7 @@
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
@@ -2173,10 +2173,10 @@
         <v>19</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>57.89</v>
       </c>
     </row>
     <row r="16">
@@ -2207,7 +2207,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -2289,10 +2289,10 @@
         <v>19</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>5.26</v>
       </c>
     </row>
     <row r="17">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -2405,10 +2405,10 @@
         <v>19</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>5.26</v>
       </c>
     </row>
     <row r="18">
@@ -2429,12 +2429,12 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -2459,12 +2459,12 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -2474,7 +2474,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -2484,12 +2484,12 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
@@ -2521,10 +2521,10 @@
         <v>19</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>36.84</v>
       </c>
     </row>
     <row r="19">
@@ -2545,12 +2545,12 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -2580,17 +2580,17 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -2637,10 +2637,10 @@
         <v>19</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>26.32</v>
       </c>
     </row>
     <row r="20">
@@ -2661,22 +2661,22 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -2691,7 +2691,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -2701,7 +2701,7 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
@@ -2711,7 +2711,7 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -2741,7 +2741,7 @@
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
@@ -2753,10 +2753,10 @@
         <v>19</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>42.11</v>
       </c>
     </row>
     <row r="21">
@@ -2782,7 +2782,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -2812,32 +2812,32 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
@@ -2869,10 +2869,10 @@
         <v>19</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>36.84</v>
       </c>
     </row>
     <row r="22">
@@ -2938,7 +2938,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -2985,10 +2985,10 @@
         <v>19</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>5.26</v>
       </c>
     </row>
     <row r="23">
@@ -3009,22 +3009,22 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -3044,7 +3044,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -3059,7 +3059,7 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -3089,7 +3089,7 @@
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
@@ -3101,10 +3101,10 @@
         <v>19</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>36.84</v>
       </c>
     </row>
     <row r="24">
@@ -3246,7 +3246,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -3271,7 +3271,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -3333,10 +3333,10 @@
         <v>19</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>10.53</v>
       </c>
     </row>
     <row r="26">
@@ -3473,17 +3473,17 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -3508,7 +3508,7 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -3523,7 +3523,7 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -3553,7 +3553,7 @@
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="U27" t="inlineStr">
@@ -3565,10 +3565,10 @@
         <v>19</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>31.58</v>
       </c>
     </row>
     <row r="28">
@@ -3589,17 +3589,17 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -3681,10 +3681,10 @@
         <v>19</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>15.79</v>
       </c>
     </row>
     <row r="29">
@@ -3821,17 +3821,17 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -3856,7 +3856,7 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -3866,17 +3866,17 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
@@ -3913,10 +3913,10 @@
         <v>19</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>36.84</v>
       </c>
     </row>
     <row r="31">
@@ -3947,7 +3947,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -3977,12 +3977,12 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -4029,10 +4029,10 @@
         <v>19</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>15.79</v>
       </c>
     </row>
     <row r="32">
@@ -4053,7 +4053,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -4145,10 +4145,10 @@
         <v>19</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>5.26</v>
       </c>
     </row>
     <row r="33">
@@ -4285,7 +4285,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -4295,7 +4295,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -4330,12 +4330,12 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -4377,10 +4377,10 @@
         <v>19</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>21.05</v>
       </c>
     </row>
     <row r="35">
@@ -4411,7 +4411,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -4426,7 +4426,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -4446,7 +4446,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -4493,10 +4493,10 @@
         <v>19</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>15.79</v>
       </c>
     </row>
     <row r="36">
@@ -4522,7 +4522,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -4609,10 +4609,10 @@
         <v>19</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>5.26</v>
       </c>
     </row>
     <row r="37">
@@ -4633,7 +4633,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -4643,7 +4643,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -4663,7 +4663,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -4673,7 +4673,7 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
@@ -4725,10 +4725,10 @@
         <v>19</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>21.05</v>
       </c>
     </row>
     <row r="38">
@@ -4794,7 +4794,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -4841,10 +4841,10 @@
         <v>19</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>5.26</v>
       </c>
     </row>
     <row r="39">
@@ -4865,17 +4865,17 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -4900,17 +4900,17 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -4920,7 +4920,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
@@ -4957,10 +4957,10 @@
         <v>19</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>36.84</v>
       </c>
     </row>
     <row r="40">
@@ -4981,12 +4981,12 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -5016,17 +5016,17 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -5036,7 +5036,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
@@ -5073,10 +5073,10 @@
         <v>19</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>31.58</v>
       </c>
     </row>
     <row r="41">
@@ -5097,17 +5097,17 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -5152,7 +5152,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
@@ -5189,10 +5189,10 @@
         <v>19</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>21.05</v>
       </c>
     </row>
     <row r="42">
@@ -5248,32 +5248,32 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr">
@@ -5305,10 +5305,10 @@
         <v>19</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>31.58</v>
       </c>
     </row>
     <row r="43">
@@ -5329,17 +5329,17 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -5359,7 +5359,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -5374,12 +5374,12 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -5421,10 +5421,10 @@
         <v>19</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>31.58</v>
       </c>
     </row>
     <row r="44">
@@ -5445,17 +5445,17 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -5480,17 +5480,17 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
@@ -5505,7 +5505,7 @@
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="Q44" t="inlineStr">
@@ -5525,7 +5525,7 @@
       </c>
       <c r="T44" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="U44" t="inlineStr">
@@ -5537,10 +5537,10 @@
         <v>19</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>42.11</v>
       </c>
     </row>
     <row r="45">
@@ -5601,7 +5601,7 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
@@ -5653,10 +5653,10 @@
         <v>19</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>5.26</v>
       </c>
     </row>
     <row r="46">
@@ -5677,7 +5677,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -5687,7 +5687,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -5717,7 +5717,7 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
@@ -5769,10 +5769,10 @@
         <v>19</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>15.79</v>
       </c>
     </row>
     <row r="47">
@@ -5793,7 +5793,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -5885,10 +5885,10 @@
         <v>19</v>
       </c>
       <c r="W47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X47" t="n">
-        <v>0</v>
+        <v>5.26</v>
       </c>
     </row>
     <row r="48">
@@ -5909,7 +5909,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -5949,7 +5949,7 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
@@ -6001,10 +6001,10 @@
         <v>19</v>
       </c>
       <c r="W48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X48" t="n">
-        <v>0</v>
+        <v>10.53</v>
       </c>
     </row>
     <row r="49">
@@ -6025,12 +6025,12 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -6055,7 +6055,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -6065,7 +6065,7 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
@@ -6117,10 +6117,10 @@
         <v>19</v>
       </c>
       <c r="W49" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X49" t="n">
-        <v>0</v>
+        <v>21.05</v>
       </c>
     </row>
     <row r="50">
@@ -6146,7 +6146,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -6171,7 +6171,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -6181,7 +6181,7 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
@@ -6233,10 +6233,10 @@
         <v>19</v>
       </c>
       <c r="W50" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X50" t="n">
-        <v>0</v>
+        <v>15.79</v>
       </c>
     </row>
     <row r="51">
@@ -6257,17 +6257,17 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -6287,7 +6287,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -6297,7 +6297,7 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
@@ -6349,10 +6349,10 @@
         <v>19</v>
       </c>
       <c r="W51" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="X51" t="n">
-        <v>0</v>
+        <v>26.32</v>
       </c>
     </row>
     <row r="52">
@@ -6373,7 +6373,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -6383,7 +6383,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -6403,12 +6403,12 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
@@ -6423,7 +6423,7 @@
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
@@ -6433,7 +6433,7 @@
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="Q52" t="inlineStr">
@@ -6453,7 +6453,7 @@
       </c>
       <c r="T52" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="U52" t="inlineStr">
@@ -6465,10 +6465,10 @@
         <v>19</v>
       </c>
       <c r="W52" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="X52" t="n">
-        <v>0</v>
+        <v>36.84</v>
       </c>
     </row>
     <row r="53">
@@ -6489,12 +6489,12 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -6519,7 +6519,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -6529,7 +6529,7 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
@@ -6581,10 +6581,10 @@
         <v>19</v>
       </c>
       <c r="W53" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X53" t="n">
-        <v>0</v>
+        <v>21.05</v>
       </c>
     </row>
     <row r="54">
@@ -6605,12 +6605,12 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -6645,12 +6645,12 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
@@ -6697,10 +6697,10 @@
         <v>19</v>
       </c>
       <c r="W54" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X54" t="n">
-        <v>0</v>
+        <v>21.05</v>
       </c>
     </row>
     <row r="55">
@@ -6766,7 +6766,7 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
@@ -6813,10 +6813,10 @@
         <v>19</v>
       </c>
       <c r="W55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X55" t="n">
-        <v>0</v>
+        <v>5.26</v>
       </c>
     </row>
     <row r="56">
@@ -6837,12 +6837,12 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -6877,7 +6877,7 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
@@ -6929,10 +6929,10 @@
         <v>19</v>
       </c>
       <c r="W56" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X56" t="n">
-        <v>0</v>
+        <v>15.79</v>
       </c>
     </row>
     <row r="57">
@@ -6953,7 +6953,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -7045,10 +7045,10 @@
         <v>19</v>
       </c>
       <c r="W57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X57" t="n">
-        <v>0</v>
+        <v>5.26</v>
       </c>
     </row>
     <row r="58">
@@ -7109,12 +7109,12 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
@@ -7161,10 +7161,10 @@
         <v>19</v>
       </c>
       <c r="W58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X58" t="n">
-        <v>0</v>
+        <v>10.53</v>
       </c>
     </row>
     <row r="59">
@@ -7185,12 +7185,12 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -7215,7 +7215,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -7235,7 +7235,7 @@
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
@@ -7277,10 +7277,10 @@
         <v>19</v>
       </c>
       <c r="W59" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X59" t="n">
-        <v>0</v>
+        <v>21.05</v>
       </c>
     </row>
     <row r="60">
@@ -7301,12 +7301,12 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -7331,7 +7331,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -7341,7 +7341,7 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
@@ -7393,10 +7393,10 @@
         <v>19</v>
       </c>
       <c r="W60" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X60" t="n">
-        <v>0</v>
+        <v>21.05</v>
       </c>
     </row>
     <row r="61">
@@ -7417,12 +7417,12 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -7447,7 +7447,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -7457,7 +7457,7 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
@@ -7509,10 +7509,10 @@
         <v>19</v>
       </c>
       <c r="W61" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="X61" t="n">
-        <v>0</v>
+        <v>26.32</v>
       </c>
     </row>
     <row r="62">
@@ -7538,17 +7538,17 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -7563,7 +7563,7 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -7573,7 +7573,7 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
@@ -7625,10 +7625,10 @@
         <v>19</v>
       </c>
       <c r="W62" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="X62" t="n">
-        <v>0</v>
+        <v>26.32</v>
       </c>
     </row>
     <row r="63">
@@ -7649,12 +7649,12 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -7689,12 +7689,12 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
@@ -7741,10 +7741,10 @@
         <v>19</v>
       </c>
       <c r="W63" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X63" t="n">
-        <v>0</v>
+        <v>21.05</v>
       </c>
     </row>
     <row r="64">
@@ -7765,12 +7765,12 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -7795,7 +7795,7 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -7857,10 +7857,10 @@
         <v>19</v>
       </c>
       <c r="W64" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X64" t="n">
-        <v>0</v>
+        <v>15.79</v>
       </c>
     </row>
     <row r="65">
@@ -7881,12 +7881,12 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -7911,7 +7911,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -7973,10 +7973,10 @@
         <v>19</v>
       </c>
       <c r="W65" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X65" t="n">
-        <v>0</v>
+        <v>15.79</v>
       </c>
     </row>
     <row r="66">
@@ -7997,7 +7997,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -8027,7 +8027,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -8037,7 +8037,7 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
@@ -8047,7 +8047,7 @@
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
@@ -8089,10 +8089,10 @@
         <v>19</v>
       </c>
       <c r="W66" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X66" t="n">
-        <v>0</v>
+        <v>21.05</v>
       </c>
     </row>
     <row r="67">
@@ -8163,7 +8163,7 @@
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
@@ -8193,7 +8193,7 @@
       </c>
       <c r="T67" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="U67" t="inlineStr">
@@ -8205,10 +8205,10 @@
         <v>19</v>
       </c>
       <c r="W67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X67" t="n">
-        <v>0</v>
+        <v>10.53</v>
       </c>
     </row>
     <row r="68">
@@ -8234,17 +8234,17 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -8259,7 +8259,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -8269,7 +8269,7 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
@@ -8321,10 +8321,10 @@
         <v>19</v>
       </c>
       <c r="W68" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="X68" t="n">
-        <v>0</v>
+        <v>26.32</v>
       </c>
     </row>
     <row r="69">
@@ -8345,17 +8345,17 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -8375,7 +8375,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -8437,10 +8437,10 @@
         <v>19</v>
       </c>
       <c r="W69" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X69" t="n">
-        <v>0</v>
+        <v>21.05</v>
       </c>
     </row>
     <row r="70">
@@ -8461,12 +8461,12 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -8491,7 +8491,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -8511,7 +8511,7 @@
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
@@ -8553,10 +8553,10 @@
         <v>19</v>
       </c>
       <c r="W70" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X70" t="n">
-        <v>0</v>
+        <v>21.05</v>
       </c>
     </row>
     <row r="71">
@@ -8577,12 +8577,12 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -8607,12 +8607,12 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
@@ -8622,7 +8622,7 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
@@ -8669,10 +8669,10 @@
         <v>19</v>
       </c>
       <c r="W71" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="X71" t="n">
-        <v>0</v>
+        <v>26.32</v>
       </c>
     </row>
     <row r="72">
@@ -8703,7 +8703,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -8753,7 +8753,7 @@
       </c>
       <c r="P72" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="Q72" t="inlineStr">
@@ -8785,10 +8785,10 @@
         <v>19</v>
       </c>
       <c r="W72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X72" t="n">
-        <v>0</v>
+        <v>10.53</v>
       </c>
     </row>
     <row r="73">
@@ -8925,7 +8925,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -8940,7 +8940,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -8970,7 +8970,7 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
@@ -9017,10 +9017,10 @@
         <v>19</v>
       </c>
       <c r="W74" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X74" t="n">
-        <v>0</v>
+        <v>15.79</v>
       </c>
     </row>
     <row r="75">
@@ -9162,7 +9162,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -9249,10 +9249,10 @@
         <v>19</v>
       </c>
       <c r="W76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X76" t="n">
-        <v>0</v>
+        <v>5.26</v>
       </c>
     </row>
     <row r="77">
@@ -9273,7 +9273,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -9283,7 +9283,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -9303,7 +9303,7 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -9318,12 +9318,12 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
@@ -9365,10 +9365,10 @@
         <v>19</v>
       </c>
       <c r="W77" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="X77" t="n">
-        <v>0</v>
+        <v>26.32</v>
       </c>
     </row>
     <row r="78">
@@ -9389,12 +9389,12 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -9481,10 +9481,10 @@
         <v>19</v>
       </c>
       <c r="W78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X78" t="n">
-        <v>0</v>
+        <v>10.53</v>
       </c>
     </row>
     <row r="79">
@@ -9505,12 +9505,12 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -9597,10 +9597,10 @@
         <v>19</v>
       </c>
       <c r="W79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X79" t="n">
-        <v>0</v>
+        <v>10.53</v>
       </c>
     </row>
     <row r="80">
@@ -9621,7 +9621,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -9651,7 +9651,7 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -9713,10 +9713,10 @@
         <v>19</v>
       </c>
       <c r="W80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X80" t="n">
-        <v>0</v>
+        <v>10.53</v>
       </c>
     </row>
     <row r="81">
@@ -9772,12 +9772,12 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
@@ -9787,7 +9787,7 @@
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
@@ -9797,7 +9797,7 @@
       </c>
       <c r="P81" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="Q81" t="inlineStr">
@@ -9829,10 +9829,10 @@
         <v>19</v>
       </c>
       <c r="W81" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X81" t="n">
-        <v>0</v>
+        <v>21.05</v>
       </c>
     </row>
     <row r="82">
@@ -9853,17 +9853,17 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -9883,7 +9883,7 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -9913,7 +9913,7 @@
       </c>
       <c r="P82" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="Q82" t="inlineStr">
@@ -9933,7 +9933,7 @@
       </c>
       <c r="T82" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="U82" t="inlineStr">
@@ -9945,10 +9945,10 @@
         <v>19</v>
       </c>
       <c r="W82" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="X82" t="n">
-        <v>0</v>
+        <v>31.58</v>
       </c>
     </row>
     <row r="83">
@@ -9969,7 +9969,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -9999,17 +9999,17 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
@@ -10019,17 +10019,17 @@
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="P83" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="Q83" t="inlineStr">
@@ -10061,10 +10061,10 @@
         <v>19</v>
       </c>
       <c r="W83" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="X83" t="n">
-        <v>0</v>
+        <v>36.84</v>
       </c>
     </row>
     <row r="84">
@@ -10085,12 +10085,12 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -10177,10 +10177,10 @@
         <v>19</v>
       </c>
       <c r="W84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X84" t="n">
-        <v>0</v>
+        <v>10.53</v>
       </c>
     </row>
     <row r="85">
@@ -10201,12 +10201,12 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -10293,10 +10293,10 @@
         <v>19</v>
       </c>
       <c r="W85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X85" t="n">
-        <v>0</v>
+        <v>10.53</v>
       </c>
     </row>
     <row r="86">
@@ -10433,17 +10433,17 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -10468,7 +10468,7 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
@@ -10493,7 +10493,7 @@
       </c>
       <c r="P87" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="Q87" t="inlineStr">
@@ -10525,10 +10525,10 @@
         <v>19</v>
       </c>
       <c r="W87" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="X87" t="n">
-        <v>0</v>
+        <v>26.32</v>
       </c>
     </row>
     <row r="88">
@@ -10549,17 +10549,17 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -10579,17 +10579,17 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
@@ -10609,7 +10609,7 @@
       </c>
       <c r="P88" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="Q88" t="inlineStr">
@@ -10641,10 +10641,10 @@
         <v>19</v>
       </c>
       <c r="W88" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="X88" t="n">
-        <v>0</v>
+        <v>36.84</v>
       </c>
     </row>
     <row r="89">
@@ -10665,12 +10665,12 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -10700,12 +10700,12 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
@@ -10725,7 +10725,7 @@
       </c>
       <c r="P89" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="Q89" t="inlineStr">
@@ -10757,10 +10757,10 @@
         <v>19</v>
       </c>
       <c r="W89" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="X89" t="n">
-        <v>0</v>
+        <v>26.32</v>
       </c>
     </row>
     <row r="90">
@@ -11134,7 +11134,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -11221,10 +11221,10 @@
         <v>19</v>
       </c>
       <c r="W93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X93" t="n">
-        <v>0</v>
+        <v>5.26</v>
       </c>
     </row>
     <row r="94">
@@ -11245,7 +11245,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -11337,10 +11337,10 @@
         <v>19</v>
       </c>
       <c r="W94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X94" t="n">
-        <v>0</v>
+        <v>5.26</v>
       </c>
     </row>
     <row r="95">
@@ -11361,12 +11361,12 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -11453,10 +11453,10 @@
         <v>19</v>
       </c>
       <c r="W95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X95" t="n">
-        <v>0</v>
+        <v>10.53</v>
       </c>
     </row>
     <row r="96">
@@ -11477,7 +11477,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -11492,7 +11492,7 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -11522,7 +11522,7 @@
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="N96" t="inlineStr">
@@ -11569,10 +11569,10 @@
         <v>19</v>
       </c>
       <c r="W96" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X96" t="n">
-        <v>0</v>
+        <v>15.79</v>
       </c>
     </row>
     <row r="97">
@@ -11709,7 +11709,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -11719,12 +11719,12 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -11739,12 +11739,12 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
@@ -11754,7 +11754,7 @@
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="N98" t="inlineStr">
@@ -11801,10 +11801,10 @@
         <v>19</v>
       </c>
       <c r="W98" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="X98" t="n">
-        <v>0</v>
+        <v>31.58</v>
       </c>
     </row>
     <row r="99">
@@ -11825,17 +11825,17 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
@@ -11917,10 +11917,10 @@
         <v>19</v>
       </c>
       <c r="W99" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X99" t="n">
-        <v>0</v>
+        <v>15.79</v>
       </c>
     </row>
     <row r="100">
@@ -11941,12 +11941,12 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -11971,17 +11971,17 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
@@ -12033,10 +12033,10 @@
         <v>19</v>
       </c>
       <c r="W100" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="X100" t="n">
-        <v>0</v>
+        <v>26.32</v>
       </c>
     </row>
     <row r="101">
@@ -12057,7 +12057,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -12149,10 +12149,10 @@
         <v>19</v>
       </c>
       <c r="W101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X101" t="n">
-        <v>0</v>
+        <v>5.26</v>
       </c>
     </row>
     <row r="102">
@@ -12173,7 +12173,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -12265,10 +12265,10 @@
         <v>19</v>
       </c>
       <c r="W102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X102" t="n">
-        <v>0</v>
+        <v>5.26</v>
       </c>
     </row>
     <row r="103">
@@ -12294,17 +12294,17 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -12324,7 +12324,7 @@
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L103" t="inlineStr">
@@ -12381,10 +12381,10 @@
         <v>19</v>
       </c>
       <c r="W103" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X103" t="n">
-        <v>0</v>
+        <v>21.05</v>
       </c>
     </row>
     <row r="104">
@@ -12526,7 +12526,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -12556,17 +12556,17 @@
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="N105" t="inlineStr">
@@ -12576,12 +12576,12 @@
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="P105" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="Q105" t="inlineStr">
@@ -12613,10 +12613,10 @@
         <v>19</v>
       </c>
       <c r="W105" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="X105" t="n">
-        <v>0</v>
+        <v>31.58</v>
       </c>
     </row>
     <row r="106">
@@ -12753,12 +12753,12 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -12793,7 +12793,7 @@
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="M107" t="inlineStr">
@@ -12845,10 +12845,10 @@
         <v>19</v>
       </c>
       <c r="W107" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X107" t="n">
-        <v>0</v>
+        <v>15.79</v>
       </c>
     </row>
     <row r="108">
@@ -12985,22 +12985,22 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -13015,32 +13015,32 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="N109" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="P109" t="inlineStr">
@@ -13077,10 +13077,10 @@
         <v>19</v>
       </c>
       <c r="W109" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="X109" t="n">
-        <v>0</v>
+        <v>52.63</v>
       </c>
     </row>
     <row r="110">
@@ -13101,12 +13101,12 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -13136,22 +13136,22 @@
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="N110" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O110" t="inlineStr">
@@ -13193,10 +13193,10 @@
         <v>19</v>
       </c>
       <c r="W110" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="X110" t="n">
-        <v>0</v>
+        <v>31.58</v>
       </c>
     </row>
     <row r="111">
@@ -13217,17 +13217,17 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
@@ -13252,32 +13252,32 @@
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="N111" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="P111" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="Q111" t="inlineStr">
@@ -13309,10 +13309,10 @@
         <v>19</v>
       </c>
       <c r="W111" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="X111" t="n">
-        <v>0</v>
+        <v>47.37</v>
       </c>
     </row>
     <row r="112">
@@ -13343,7 +13343,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
@@ -13425,10 +13425,10 @@
         <v>19</v>
       </c>
       <c r="W112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X112" t="n">
-        <v>0</v>
+        <v>5.26</v>
       </c>
     </row>
     <row r="113">
@@ -13565,17 +13565,17 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
@@ -13595,27 +13595,27 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="N114" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O114" t="inlineStr">
@@ -13625,7 +13625,7 @@
       </c>
       <c r="P114" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="Q114" t="inlineStr">
@@ -13645,22 +13645,22 @@
       </c>
       <c r="T114" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="U114" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="V114" t="n">
         <v>19</v>
       </c>
       <c r="W114" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="X114" t="n">
-        <v>0</v>
+        <v>57.89</v>
       </c>
     </row>
     <row r="115">
@@ -13827,7 +13827,7 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
@@ -13889,10 +13889,10 @@
         <v>19</v>
       </c>
       <c r="W116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X116" t="n">
-        <v>0</v>
+        <v>5.26</v>
       </c>
     </row>
     <row r="117">
@@ -13958,7 +13958,7 @@
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="N117" t="inlineStr">
@@ -13998,17 +13998,17 @@
       </c>
       <c r="U117" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="V117" t="n">
         <v>19</v>
       </c>
       <c r="W117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X117" t="n">
-        <v>0</v>
+        <v>10.53</v>
       </c>
     </row>
     <row r="118">
@@ -14029,7 +14029,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -14039,7 +14039,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
@@ -14064,7 +14064,7 @@
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L118" t="inlineStr">
@@ -14074,7 +14074,7 @@
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="N118" t="inlineStr">
@@ -14084,12 +14084,12 @@
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="P118" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="Q118" t="inlineStr">
@@ -14114,17 +14114,17 @@
       </c>
       <c r="U118" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="V118" t="n">
         <v>19</v>
       </c>
       <c r="W118" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="X118" t="n">
-        <v>0</v>
+        <v>36.84</v>
       </c>
     </row>
     <row r="119">
@@ -14377,12 +14377,12 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -14412,7 +14412,7 @@
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L121" t="inlineStr">
@@ -14469,10 +14469,10 @@
         <v>19</v>
       </c>
       <c r="W121" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X121" t="n">
-        <v>0</v>
+        <v>15.79</v>
       </c>
     </row>
     <row r="122">
@@ -14493,17 +14493,17 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
@@ -14523,7 +14523,7 @@
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
@@ -14585,10 +14585,10 @@
         <v>19</v>
       </c>
       <c r="W122" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X122" t="n">
-        <v>0</v>
+        <v>21.05</v>
       </c>
     </row>
     <row r="123">
@@ -14609,7 +14609,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -14639,7 +14639,7 @@
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
@@ -14701,10 +14701,10 @@
         <v>19</v>
       </c>
       <c r="W123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X123" t="n">
-        <v>0</v>
+        <v>10.53</v>
       </c>
     </row>
     <row r="124">
@@ -14725,7 +14725,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -14755,7 +14755,7 @@
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
@@ -14817,10 +14817,10 @@
         <v>19</v>
       </c>
       <c r="W124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X124" t="n">
-        <v>0</v>
+        <v>10.53</v>
       </c>
     </row>
     <row r="125">
@@ -14841,7 +14841,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -14881,7 +14881,7 @@
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="M125" t="inlineStr">
@@ -14933,10 +14933,10 @@
         <v>19</v>
       </c>
       <c r="W125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X125" t="n">
-        <v>0</v>
+        <v>10.53</v>
       </c>
     </row>
     <row r="126">
@@ -15078,12 +15078,12 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
@@ -15108,17 +15108,17 @@
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="N127" t="inlineStr">
@@ -15128,12 +15128,12 @@
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="P127" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="Q127" t="inlineStr">
@@ -15165,10 +15165,10 @@
         <v>19</v>
       </c>
       <c r="W127" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="X127" t="n">
-        <v>0</v>
+        <v>36.84</v>
       </c>
     </row>
     <row r="128">
@@ -15189,17 +15189,17 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
@@ -15281,10 +15281,10 @@
         <v>19</v>
       </c>
       <c r="W128" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X128" t="n">
-        <v>0</v>
+        <v>15.79</v>
       </c>
     </row>
     <row r="129">
@@ -15310,7 +15310,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -15397,10 +15397,10 @@
         <v>19</v>
       </c>
       <c r="W129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X129" t="n">
-        <v>0</v>
+        <v>5.26</v>
       </c>
     </row>
     <row r="130">
@@ -15421,12 +15421,12 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -15451,7 +15451,7 @@
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
@@ -15461,7 +15461,7 @@
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="M130" t="inlineStr">
@@ -15513,10 +15513,10 @@
         <v>19</v>
       </c>
       <c r="W130" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X130" t="n">
-        <v>0</v>
+        <v>21.05</v>
       </c>
     </row>
     <row r="131">
@@ -15537,12 +15537,12 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -15577,12 +15577,12 @@
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="N131" t="inlineStr">
@@ -15629,10 +15629,10 @@
         <v>19</v>
       </c>
       <c r="W131" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X131" t="n">
-        <v>0</v>
+        <v>21.05</v>
       </c>
     </row>
     <row r="132">
@@ -15653,12 +15653,12 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -15745,10 +15745,10 @@
         <v>19</v>
       </c>
       <c r="W132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X132" t="n">
-        <v>0</v>
+        <v>10.53</v>
       </c>
     </row>
     <row r="133">
@@ -15769,12 +15769,12 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -15799,7 +15799,7 @@
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
@@ -15861,10 +15861,10 @@
         <v>19</v>
       </c>
       <c r="W133" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X133" t="n">
-        <v>0</v>
+        <v>15.79</v>
       </c>
     </row>
     <row r="134">
@@ -15885,12 +15885,12 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -15977,10 +15977,10 @@
         <v>19</v>
       </c>
       <c r="W134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X134" t="n">
-        <v>0</v>
+        <v>10.53</v>
       </c>
     </row>
     <row r="135">
@@ -16041,22 +16041,22 @@
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="N135" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O135" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="P135" t="inlineStr">
@@ -16081,7 +16081,7 @@
       </c>
       <c r="T135" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="U135" t="inlineStr">
@@ -16093,10 +16093,10 @@
         <v>19</v>
       </c>
       <c r="W135" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="X135" t="n">
-        <v>0</v>
+        <v>26.32</v>
       </c>
     </row>
     <row r="136">
@@ -16117,17 +16117,17 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
@@ -16147,27 +16147,27 @@
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="N136" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O136" t="inlineStr">
@@ -16209,10 +16209,10 @@
         <v>19</v>
       </c>
       <c r="W136" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="X136" t="n">
-        <v>0</v>
+        <v>42.11</v>
       </c>
     </row>
     <row r="137">
@@ -16233,7 +16233,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -16268,12 +16268,12 @@
       </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="M137" t="inlineStr">
@@ -16283,7 +16283,7 @@
       </c>
       <c r="N137" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O137" t="inlineStr">
@@ -16313,7 +16313,7 @@
       </c>
       <c r="T137" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="U137" t="inlineStr">
@@ -16325,10 +16325,10 @@
         <v>19</v>
       </c>
       <c r="W137" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="X137" t="n">
-        <v>0</v>
+        <v>26.32</v>
       </c>
     </row>
     <row r="138">
@@ -16379,37 +16379,37 @@
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="M138" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="N138" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O138" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="P138" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="Q138" t="inlineStr">
@@ -16441,10 +16441,10 @@
         <v>19</v>
       </c>
       <c r="W138" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="X138" t="n">
-        <v>0</v>
+        <v>36.84</v>
       </c>
     </row>
     <row r="139">
@@ -16465,7 +16465,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -16557,10 +16557,10 @@
         <v>19</v>
       </c>
       <c r="W139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X139" t="n">
-        <v>0</v>
+        <v>5.26</v>
       </c>
     </row>
     <row r="140">
@@ -16616,7 +16616,7 @@
       </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L140" t="inlineStr">
@@ -16631,7 +16631,7 @@
       </c>
       <c r="N140" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O140" t="inlineStr">
@@ -16661,7 +16661,7 @@
       </c>
       <c r="T140" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="U140" t="inlineStr">
@@ -16673,10 +16673,10 @@
         <v>19</v>
       </c>
       <c r="W140" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X140" t="n">
-        <v>0</v>
+        <v>15.79</v>
       </c>
     </row>
     <row r="141">
@@ -16697,7 +16697,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -16789,10 +16789,10 @@
         <v>19</v>
       </c>
       <c r="W141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X141" t="n">
-        <v>0</v>
+        <v>5.26</v>
       </c>
     </row>
     <row r="142">
@@ -16823,7 +16823,7 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
@@ -16843,22 +16843,22 @@
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="N142" t="inlineStr">
@@ -16905,10 +16905,10 @@
         <v>19</v>
       </c>
       <c r="W142" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="X142" t="n">
-        <v>0</v>
+        <v>26.32</v>
       </c>
     </row>
     <row r="143">
@@ -16929,17 +16929,17 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
@@ -16959,12 +16959,12 @@
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L143" t="inlineStr">
@@ -16974,12 +16974,12 @@
       </c>
       <c r="M143" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="N143" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O143" t="inlineStr">
@@ -17021,10 +17021,10 @@
         <v>19</v>
       </c>
       <c r="W143" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="X143" t="n">
-        <v>0</v>
+        <v>36.84</v>
       </c>
     </row>
     <row r="144">
@@ -17090,7 +17090,7 @@
       </c>
       <c r="M144" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="N144" t="inlineStr">
@@ -17137,10 +17137,10 @@
         <v>19</v>
       </c>
       <c r="W144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X144" t="n">
-        <v>0</v>
+        <v>5.26</v>
       </c>
     </row>
     <row r="145">
@@ -17161,17 +17161,17 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
@@ -17253,10 +17253,10 @@
         <v>19</v>
       </c>
       <c r="W145" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X145" t="n">
-        <v>0</v>
+        <v>15.79</v>
       </c>
     </row>
     <row r="146">
@@ -17393,7 +17393,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -17485,10 +17485,10 @@
         <v>19</v>
       </c>
       <c r="W147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X147" t="n">
-        <v>0</v>
+        <v>5.26</v>
       </c>
     </row>
     <row r="148">
@@ -17509,17 +17509,17 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
@@ -17549,17 +17549,17 @@
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="M148" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="N148" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O148" t="inlineStr">
@@ -17601,10 +17601,10 @@
         <v>19</v>
       </c>
       <c r="W148" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="X148" t="n">
-        <v>0</v>
+        <v>31.58</v>
       </c>
     </row>
     <row r="149">
@@ -17625,7 +17625,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -17635,7 +17635,7 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
@@ -17665,12 +17665,12 @@
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="M149" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="N149" t="inlineStr">
@@ -17717,10 +17717,10 @@
         <v>19</v>
       </c>
       <c r="W149" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X149" t="n">
-        <v>0</v>
+        <v>21.05</v>
       </c>
     </row>
     <row r="150">
@@ -17741,17 +17741,17 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
@@ -17771,7 +17771,7 @@
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K150" t="inlineStr">
@@ -17781,22 +17781,22 @@
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="M150" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="N150" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="P150" t="inlineStr">
@@ -17821,7 +17821,7 @@
       </c>
       <c r="T150" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="U150" t="inlineStr">
@@ -17833,10 +17833,10 @@
         <v>19</v>
       </c>
       <c r="W150" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="X150" t="n">
-        <v>0</v>
+        <v>47.37</v>
       </c>
     </row>
     <row r="151">
@@ -17857,7 +17857,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -17867,7 +17867,7 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
@@ -17892,17 +17892,17 @@
       </c>
       <c r="K151" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="M151" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="N151" t="inlineStr">
@@ -17949,10 +17949,10 @@
         <v>19</v>
       </c>
       <c r="W151" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="X151" t="n">
-        <v>0</v>
+        <v>26.32</v>
       </c>
     </row>
     <row r="152">
@@ -17973,7 +17973,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -18065,10 +18065,10 @@
         <v>19</v>
       </c>
       <c r="W152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X152" t="n">
-        <v>0</v>
+        <v>5.26</v>
       </c>
     </row>
     <row r="153">
@@ -18119,7 +18119,7 @@
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K153" t="inlineStr">
@@ -18181,10 +18181,10 @@
         <v>19</v>
       </c>
       <c r="W153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X153" t="n">
-        <v>0</v>
+        <v>5.26</v>
       </c>
     </row>
     <row r="154">
@@ -18245,12 +18245,12 @@
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="M154" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="N154" t="inlineStr">
@@ -18297,10 +18297,10 @@
         <v>19</v>
       </c>
       <c r="W154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X154" t="n">
-        <v>0</v>
+        <v>10.53</v>
       </c>
     </row>
     <row r="155">
@@ -18321,12 +18321,12 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -18351,7 +18351,7 @@
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
@@ -18361,7 +18361,7 @@
       </c>
       <c r="L155" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="M155" t="inlineStr">
@@ -18413,10 +18413,10 @@
         <v>19</v>
       </c>
       <c r="W155" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X155" t="n">
-        <v>0</v>
+        <v>21.05</v>
       </c>
     </row>
     <row r="156">
@@ -18442,7 +18442,7 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -18529,10 +18529,10 @@
         <v>19</v>
       </c>
       <c r="W156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X156" t="n">
-        <v>0</v>
+        <v>5.26</v>
       </c>
     </row>
     <row r="157">
@@ -18553,12 +18553,12 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -18583,7 +18583,7 @@
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K157" t="inlineStr">
@@ -18603,7 +18603,7 @@
       </c>
       <c r="N157" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O157" t="inlineStr">
@@ -18633,7 +18633,7 @@
       </c>
       <c r="T157" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="U157" t="inlineStr">
@@ -18645,10 +18645,10 @@
         <v>19</v>
       </c>
       <c r="W157" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="X157" t="n">
-        <v>0</v>
+        <v>26.32</v>
       </c>
     </row>
     <row r="158">
@@ -18669,12 +18669,12 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -18761,10 +18761,10 @@
         <v>19</v>
       </c>
       <c r="W158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X158" t="n">
-        <v>0</v>
+        <v>10.53</v>
       </c>
     </row>
     <row r="159">
@@ -18785,7 +18785,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -18815,17 +18815,17 @@
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L159" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="M159" t="inlineStr">
@@ -18865,7 +18865,7 @@
       </c>
       <c r="T159" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="U159" t="inlineStr">
@@ -18877,10 +18877,10 @@
         <v>19</v>
       </c>
       <c r="W159" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="X159" t="n">
-        <v>0</v>
+        <v>26.32</v>
       </c>
     </row>
     <row r="160">
@@ -18901,12 +18901,12 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
@@ -18931,7 +18931,7 @@
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K160" t="inlineStr">
@@ -18993,10 +18993,10 @@
         <v>19</v>
       </c>
       <c r="W160" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X160" t="n">
-        <v>0</v>
+        <v>15.79</v>
       </c>
     </row>
     <row r="161">
@@ -19062,7 +19062,7 @@
       </c>
       <c r="M161" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="N161" t="inlineStr">
@@ -19109,10 +19109,10 @@
         <v>19</v>
       </c>
       <c r="W161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X161" t="n">
-        <v>0</v>
+        <v>5.26</v>
       </c>
     </row>
     <row r="162">
@@ -19133,12 +19133,12 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -19178,7 +19178,7 @@
       </c>
       <c r="M162" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="N162" t="inlineStr">
@@ -19225,10 +19225,10 @@
         <v>19</v>
       </c>
       <c r="W162" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X162" t="n">
-        <v>0</v>
+        <v>15.79</v>
       </c>
     </row>
     <row r="163">
@@ -19249,17 +19249,17 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
@@ -19279,17 +19279,17 @@
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K163" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L163" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="M163" t="inlineStr">
@@ -19341,10 +19341,10 @@
         <v>19</v>
       </c>
       <c r="W163" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="X163" t="n">
-        <v>0</v>
+        <v>31.58</v>
       </c>
     </row>
     <row r="164">
@@ -19365,7 +19365,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -19457,10 +19457,10 @@
         <v>19</v>
       </c>
       <c r="W164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X164" t="n">
-        <v>0</v>
+        <v>5.26</v>
       </c>
     </row>
     <row r="165">
@@ -19481,12 +19481,12 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
@@ -19511,7 +19511,7 @@
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K165" t="inlineStr">
@@ -19526,12 +19526,12 @@
       </c>
       <c r="M165" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="N165" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O165" t="inlineStr">
@@ -19573,10 +19573,10 @@
         <v>19</v>
       </c>
       <c r="W165" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="X165" t="n">
-        <v>0</v>
+        <v>26.32</v>
       </c>
     </row>
     <row r="166">
@@ -19597,7 +19597,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -19637,12 +19637,12 @@
       </c>
       <c r="L166" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="M166" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="N166" t="inlineStr">
@@ -19689,10 +19689,10 @@
         <v>19</v>
       </c>
       <c r="W166" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X166" t="n">
-        <v>0</v>
+        <v>15.79</v>
       </c>
     </row>
     <row r="167">
@@ -19713,12 +19713,12 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
@@ -19748,7 +19748,7 @@
       </c>
       <c r="K167" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L167" t="inlineStr">
@@ -19805,10 +19805,10 @@
         <v>19</v>
       </c>
       <c r="W167" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X167" t="n">
-        <v>0</v>
+        <v>15.79</v>
       </c>
     </row>
     <row r="168">
@@ -19839,7 +19839,7 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
@@ -19921,10 +19921,10 @@
         <v>19</v>
       </c>
       <c r="W168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X168" t="n">
-        <v>0</v>
+        <v>5.26</v>
       </c>
     </row>
     <row r="169">
@@ -19950,7 +19950,7 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -19975,7 +19975,7 @@
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K169" t="inlineStr">
@@ -19990,7 +19990,7 @@
       </c>
       <c r="M169" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="N169" t="inlineStr">
@@ -20037,10 +20037,10 @@
         <v>19</v>
       </c>
       <c r="W169" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X169" t="n">
-        <v>0</v>
+        <v>15.79</v>
       </c>
     </row>
     <row r="170">
@@ -20061,12 +20061,12 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
@@ -20091,17 +20091,17 @@
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K170" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L170" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="M170" t="inlineStr">
@@ -20111,7 +20111,7 @@
       </c>
       <c r="N170" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O170" t="inlineStr">
@@ -20141,22 +20141,22 @@
       </c>
       <c r="T170" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="U170" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="V170" t="n">
         <v>19</v>
       </c>
       <c r="W170" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="X170" t="n">
-        <v>0</v>
+        <v>42.11</v>
       </c>
     </row>
     <row r="171">
@@ -20177,17 +20177,17 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
@@ -20207,37 +20207,37 @@
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K171" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L171" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="M171" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="N171" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O171" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="P171" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="Q171" t="inlineStr">
@@ -20257,22 +20257,22 @@
       </c>
       <c r="T171" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="U171" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="V171" t="n">
         <v>19</v>
       </c>
       <c r="W171" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="X171" t="n">
-        <v>0</v>
+        <v>63.16</v>
       </c>
     </row>
     <row r="172">
@@ -20298,7 +20298,7 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
@@ -20323,7 +20323,7 @@
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K172" t="inlineStr">
@@ -20333,7 +20333,7 @@
       </c>
       <c r="L172" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="M172" t="inlineStr">
@@ -20385,10 +20385,10 @@
         <v>19</v>
       </c>
       <c r="W172" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X172" t="n">
-        <v>0</v>
+        <v>15.79</v>
       </c>
     </row>
     <row r="173">
@@ -20409,17 +20409,17 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
@@ -20459,7 +20459,7 @@
       </c>
       <c r="N173" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O173" t="inlineStr">
@@ -20501,10 +20501,10 @@
         <v>19</v>
       </c>
       <c r="W173" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X173" t="n">
-        <v>0</v>
+        <v>21.05</v>
       </c>
     </row>
     <row r="174">
@@ -20641,12 +20641,12 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
@@ -20671,12 +20671,12 @@
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K175" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L175" t="inlineStr">
@@ -20701,7 +20701,7 @@
       </c>
       <c r="P175" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="Q175" t="inlineStr">
@@ -20733,10 +20733,10 @@
         <v>19</v>
       </c>
       <c r="W175" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="X175" t="n">
-        <v>0</v>
+        <v>26.32</v>
       </c>
     </row>
     <row r="176">
@@ -20757,12 +20757,12 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
@@ -20782,7 +20782,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -20797,7 +20797,7 @@
       </c>
       <c r="L176" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="M176" t="inlineStr">
@@ -20849,10 +20849,10 @@
         <v>19</v>
       </c>
       <c r="W176" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X176" t="n">
-        <v>0</v>
+        <v>21.05</v>
       </c>
     </row>
     <row r="177">
@@ -20989,7 +20989,7 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -21081,10 +21081,10 @@
         <v>19</v>
       </c>
       <c r="W178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X178" t="n">
-        <v>0</v>
+        <v>5.26</v>
       </c>
     </row>
     <row r="179">
@@ -21105,12 +21105,12 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
@@ -21135,7 +21135,7 @@
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K179" t="inlineStr">
@@ -21165,7 +21165,7 @@
       </c>
       <c r="P179" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="Q179" t="inlineStr">
@@ -21185,7 +21185,7 @@
       </c>
       <c r="T179" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="U179" t="inlineStr">
@@ -21197,10 +21197,10 @@
         <v>19</v>
       </c>
       <c r="W179" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="X179" t="n">
-        <v>0</v>
+        <v>26.32</v>
       </c>
     </row>
     <row r="180">
@@ -21337,17 +21337,17 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
@@ -21367,37 +21367,37 @@
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K181" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L181" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="M181" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="N181" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O181" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="P181" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="Q181" t="inlineStr">
@@ -21422,17 +21422,17 @@
       </c>
       <c r="U181" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="V181" t="n">
         <v>19</v>
       </c>
       <c r="W181" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="X181" t="n">
-        <v>0</v>
+        <v>57.89</v>
       </c>
     </row>
     <row r="182">
@@ -21453,12 +21453,12 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
@@ -21483,7 +21483,7 @@
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K182" t="inlineStr">
@@ -21545,10 +21545,10 @@
         <v>19</v>
       </c>
       <c r="W182" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X182" t="n">
-        <v>0</v>
+        <v>15.79</v>
       </c>
     </row>
     <row r="183">
@@ -21614,7 +21614,7 @@
       </c>
       <c r="M183" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="N183" t="inlineStr">
@@ -21661,10 +21661,10 @@
         <v>19</v>
       </c>
       <c r="W183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X183" t="n">
-        <v>0</v>
+        <v>5.26</v>
       </c>
     </row>
     <row r="184">
@@ -21685,17 +21685,17 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
@@ -21715,7 +21715,7 @@
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K184" t="inlineStr">
@@ -21745,7 +21745,7 @@
       </c>
       <c r="P184" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="Q184" t="inlineStr">
@@ -21777,10 +21777,10 @@
         <v>19</v>
       </c>
       <c r="W184" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="X184" t="n">
-        <v>0</v>
+        <v>26.32</v>
       </c>
     </row>
     <row r="185">
@@ -21801,17 +21801,17 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
@@ -21841,7 +21841,7 @@
       </c>
       <c r="L185" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="M185" t="inlineStr">
@@ -21851,12 +21851,12 @@
       </c>
       <c r="N185" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O185" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="P185" t="inlineStr">
@@ -21893,10 +21893,10 @@
         <v>19</v>
       </c>
       <c r="W185" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="X185" t="n">
-        <v>0</v>
+        <v>31.58</v>
       </c>
     </row>
     <row r="186">
@@ -21917,12 +21917,12 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
@@ -22009,10 +22009,10 @@
         <v>19</v>
       </c>
       <c r="W186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X186" t="n">
-        <v>0</v>
+        <v>10.53</v>
       </c>
     </row>
     <row r="187">
@@ -22033,7 +22033,7 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -22125,10 +22125,10 @@
         <v>19</v>
       </c>
       <c r="W187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X187" t="n">
-        <v>0</v>
+        <v>5.26</v>
       </c>
     </row>
     <row r="188">
@@ -22265,7 +22265,7 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
@@ -22295,17 +22295,17 @@
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K189" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L189" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="M189" t="inlineStr">
@@ -22320,12 +22320,12 @@
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="P189" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="Q189" t="inlineStr">
@@ -22357,10 +22357,10 @@
         <v>19</v>
       </c>
       <c r="W189" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="X189" t="n">
-        <v>0</v>
+        <v>31.58</v>
       </c>
     </row>
     <row r="190">
@@ -22381,7 +22381,7 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
@@ -22391,7 +22391,7 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
@@ -22411,17 +22411,17 @@
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K190" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L190" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="M190" t="inlineStr">
@@ -22473,10 +22473,10 @@
         <v>19</v>
       </c>
       <c r="W190" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="X190" t="n">
-        <v>0</v>
+        <v>26.32</v>
       </c>
     </row>
     <row r="191">
@@ -22532,12 +22532,12 @@
       </c>
       <c r="K191" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L191" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="M191" t="inlineStr">
@@ -22589,10 +22589,10 @@
         <v>19</v>
       </c>
       <c r="W191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X191" t="n">
-        <v>0</v>
+        <v>10.53</v>
       </c>
     </row>
     <row r="192">
@@ -22613,17 +22613,17 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
@@ -22705,10 +22705,10 @@
         <v>19</v>
       </c>
       <c r="W192" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X192" t="n">
-        <v>0</v>
+        <v>15.79</v>
       </c>
     </row>
     <row r="193">
@@ -22764,7 +22764,7 @@
       </c>
       <c r="K193" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L193" t="inlineStr">
@@ -22774,22 +22774,22 @@
       </c>
       <c r="M193" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="N193" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O193" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="P193" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="Q193" t="inlineStr">
@@ -22809,7 +22809,7 @@
       </c>
       <c r="T193" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="U193" t="inlineStr">
@@ -22821,10 +22821,10 @@
         <v>19</v>
       </c>
       <c r="W193" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="X193" t="n">
-        <v>0</v>
+        <v>31.58</v>
       </c>
     </row>
     <row r="194">
@@ -22845,17 +22845,17 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
@@ -22880,17 +22880,17 @@
       </c>
       <c r="K194" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L194" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="M194" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="N194" t="inlineStr">
@@ -22937,10 +22937,10 @@
         <v>19</v>
       </c>
       <c r="W194" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="X194" t="n">
-        <v>0</v>
+        <v>31.58</v>
       </c>
     </row>
     <row r="195">
@@ -22961,12 +22961,12 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
@@ -22991,7 +22991,7 @@
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K195" t="inlineStr">
@@ -23001,7 +23001,7 @@
       </c>
       <c r="L195" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="M195" t="inlineStr">
@@ -23053,10 +23053,10 @@
         <v>19</v>
       </c>
       <c r="W195" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X195" t="n">
-        <v>0</v>
+        <v>21.05</v>
       </c>
     </row>
     <row r="196">
@@ -23112,17 +23112,17 @@
       </c>
       <c r="K196" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L196" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="M196" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="N196" t="inlineStr">
@@ -23157,7 +23157,7 @@
       </c>
       <c r="T196" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="U196" t="inlineStr">
@@ -23169,10 +23169,10 @@
         <v>19</v>
       </c>
       <c r="W196" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X196" t="n">
-        <v>0</v>
+        <v>21.05</v>
       </c>
     </row>
     <row r="197">
@@ -23193,17 +23193,17 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
@@ -23223,7 +23223,7 @@
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K197" t="inlineStr">
@@ -23233,12 +23233,12 @@
       </c>
       <c r="L197" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="M197" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="N197" t="inlineStr">
@@ -23253,7 +23253,7 @@
       </c>
       <c r="P197" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="Q197" t="inlineStr">
@@ -23273,7 +23273,7 @@
       </c>
       <c r="T197" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="U197" t="inlineStr">
@@ -23285,10 +23285,10 @@
         <v>19</v>
       </c>
       <c r="W197" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="X197" t="n">
-        <v>0</v>
+        <v>42.11</v>
       </c>
     </row>
     <row r="198">
@@ -23309,17 +23309,17 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
@@ -23339,7 +23339,7 @@
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K198" t="inlineStr">
@@ -23349,17 +23349,17 @@
       </c>
       <c r="L198" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="M198" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="N198" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O198" t="inlineStr">
@@ -23369,7 +23369,7 @@
       </c>
       <c r="P198" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="Q198" t="inlineStr">
@@ -23389,7 +23389,7 @@
       </c>
       <c r="T198" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="U198" t="inlineStr">
@@ -23401,10 +23401,10 @@
         <v>19</v>
       </c>
       <c r="W198" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="X198" t="n">
-        <v>0</v>
+        <v>47.37</v>
       </c>
     </row>
     <row r="199">
@@ -23425,17 +23425,17 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
@@ -23470,7 +23470,7 @@
       </c>
       <c r="M199" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="N199" t="inlineStr">
@@ -23517,10 +23517,10 @@
         <v>19</v>
       </c>
       <c r="W199" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X199" t="n">
-        <v>0</v>
+        <v>21.05</v>
       </c>
     </row>
     <row r="200">
@@ -23556,7 +23556,7 @@
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
@@ -23586,7 +23586,7 @@
       </c>
       <c r="M200" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="N200" t="inlineStr">
@@ -23601,7 +23601,7 @@
       </c>
       <c r="P200" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="Q200" t="inlineStr">
@@ -23621,7 +23621,7 @@
       </c>
       <c r="T200" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="U200" t="inlineStr">
@@ -23633,10 +23633,10 @@
         <v>19</v>
       </c>
       <c r="W200" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X200" t="n">
-        <v>0</v>
+        <v>21.05</v>
       </c>
     </row>
     <row r="201">
@@ -23657,12 +23657,12 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
@@ -23749,10 +23749,10 @@
         <v>19</v>
       </c>
       <c r="W201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X201" t="n">
-        <v>0</v>
+        <v>10.53</v>
       </c>
     </row>
     <row r="202">
@@ -23773,7 +23773,7 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
@@ -23783,7 +23783,7 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
@@ -23813,12 +23813,12 @@
       </c>
       <c r="L202" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="M202" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="N202" t="inlineStr">
@@ -23865,10 +23865,10 @@
         <v>19</v>
       </c>
       <c r="W202" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X202" t="n">
-        <v>0</v>
+        <v>21.05</v>
       </c>
     </row>
     <row r="203">
@@ -23889,12 +23889,12 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
@@ -23934,7 +23934,7 @@
       </c>
       <c r="M203" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="N203" t="inlineStr">
@@ -23981,10 +23981,10 @@
         <v>19</v>
       </c>
       <c r="W203" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X203" t="n">
-        <v>0</v>
+        <v>15.79</v>
       </c>
     </row>
     <row r="204">
@@ -24005,17 +24005,17 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
@@ -24035,22 +24035,22 @@
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K204" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L204" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="M204" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="N204" t="inlineStr">
@@ -24060,12 +24060,12 @@
       </c>
       <c r="O204" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="P204" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="Q204" t="inlineStr">
@@ -24085,7 +24085,7 @@
       </c>
       <c r="T204" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="U204" t="inlineStr">
@@ -24097,10 +24097,10 @@
         <v>19</v>
       </c>
       <c r="W204" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="X204" t="n">
-        <v>0</v>
+        <v>52.63</v>
       </c>
     </row>
     <row r="205">
@@ -24121,17 +24121,17 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
@@ -24166,7 +24166,7 @@
       </c>
       <c r="M205" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="N205" t="inlineStr">
@@ -24213,10 +24213,10 @@
         <v>19</v>
       </c>
       <c r="W205" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X205" t="n">
-        <v>0</v>
+        <v>21.05</v>
       </c>
     </row>
     <row r="206">
@@ -24237,17 +24237,17 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
@@ -24267,27 +24267,27 @@
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K206" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L206" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="M206" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="N206" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O206" t="inlineStr">
@@ -24297,7 +24297,7 @@
       </c>
       <c r="P206" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="Q206" t="inlineStr">
@@ -24317,7 +24317,7 @@
       </c>
       <c r="T206" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="U206" t="inlineStr">
@@ -24329,10 +24329,10 @@
         <v>19</v>
       </c>
       <c r="W206" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="X206" t="n">
-        <v>0</v>
+        <v>52.63</v>
       </c>
     </row>
     <row r="207">
@@ -24353,7 +24353,7 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
@@ -24445,10 +24445,10 @@
         <v>19</v>
       </c>
       <c r="W207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X207" t="n">
-        <v>0</v>
+        <v>5.26</v>
       </c>
     </row>
     <row r="208">
@@ -24469,12 +24469,12 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
@@ -24514,12 +24514,12 @@
       </c>
       <c r="M208" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="N208" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O208" t="inlineStr">
@@ -24561,10 +24561,10 @@
         <v>19</v>
       </c>
       <c r="W208" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X208" t="n">
-        <v>0</v>
+        <v>21.05</v>
       </c>
     </row>
     <row r="209">
@@ -24585,7 +24585,7 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
@@ -24595,7 +24595,7 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
@@ -24630,7 +24630,7 @@
       </c>
       <c r="M209" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="N209" t="inlineStr">
@@ -24677,10 +24677,10 @@
         <v>19</v>
       </c>
       <c r="W209" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X209" t="n">
-        <v>0</v>
+        <v>15.79</v>
       </c>
     </row>
     <row r="210">
@@ -24701,17 +24701,17 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
@@ -24793,10 +24793,10 @@
         <v>19</v>
       </c>
       <c r="W210" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X210" t="n">
-        <v>0</v>
+        <v>15.79</v>
       </c>
     </row>
     <row r="211">
@@ -24817,17 +24817,17 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
@@ -24862,7 +24862,7 @@
       </c>
       <c r="M211" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="N211" t="inlineStr">
@@ -24872,12 +24872,12 @@
       </c>
       <c r="O211" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="P211" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="Q211" t="inlineStr">
@@ -24897,7 +24897,7 @@
       </c>
       <c r="T211" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="U211" t="inlineStr">
@@ -24909,10 +24909,10 @@
         <v>19</v>
       </c>
       <c r="W211" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="X211" t="n">
-        <v>0</v>
+        <v>36.84</v>
       </c>
     </row>
     <row r="212">
@@ -24933,17 +24933,17 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
@@ -24963,7 +24963,7 @@
       </c>
       <c r="J212" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K212" t="inlineStr">
@@ -24978,12 +24978,12 @@
       </c>
       <c r="M212" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="N212" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O212" t="inlineStr">
@@ -25025,10 +25025,10 @@
         <v>19</v>
       </c>
       <c r="W212" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="X212" t="n">
-        <v>0</v>
+        <v>31.58</v>
       </c>
     </row>
     <row r="213">
@@ -25049,17 +25049,17 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G213" t="inlineStr">
@@ -25141,10 +25141,10 @@
         <v>19</v>
       </c>
       <c r="W213" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X213" t="n">
-        <v>0</v>
+        <v>15.79</v>
       </c>
     </row>
     <row r="214">
@@ -25165,17 +25165,17 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
@@ -25200,7 +25200,7 @@
       </c>
       <c r="K214" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L214" t="inlineStr">
@@ -25257,10 +25257,10 @@
         <v>19</v>
       </c>
       <c r="W214" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X214" t="n">
-        <v>0</v>
+        <v>21.05</v>
       </c>
     </row>
     <row r="215">
@@ -25281,17 +25281,17 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
@@ -25373,10 +25373,10 @@
         <v>19</v>
       </c>
       <c r="W215" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X215" t="n">
-        <v>0</v>
+        <v>15.79</v>
       </c>
     </row>
     <row r="216">
@@ -25397,17 +25397,17 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
@@ -25489,10 +25489,10 @@
         <v>19</v>
       </c>
       <c r="W216" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X216" t="n">
-        <v>0</v>
+        <v>15.79</v>
       </c>
     </row>
     <row r="217">
@@ -25513,17 +25513,17 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G217" t="inlineStr">
@@ -25543,22 +25543,22 @@
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K217" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L217" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="M217" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="N217" t="inlineStr">
@@ -25573,7 +25573,7 @@
       </c>
       <c r="P217" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="Q217" t="inlineStr">
@@ -25593,7 +25593,7 @@
       </c>
       <c r="T217" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="U217" t="inlineStr">
@@ -25605,10 +25605,10 @@
         <v>19</v>
       </c>
       <c r="W217" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="X217" t="n">
-        <v>0</v>
+        <v>47.37</v>
       </c>
     </row>
     <row r="218">
@@ -25629,17 +25629,17 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
@@ -25674,7 +25674,7 @@
       </c>
       <c r="M218" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="N218" t="inlineStr">
@@ -25721,10 +25721,10 @@
         <v>19</v>
       </c>
       <c r="W218" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X218" t="n">
-        <v>0</v>
+        <v>21.05</v>
       </c>
     </row>
     <row r="219">
@@ -25745,7 +25745,7 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
@@ -25790,7 +25790,7 @@
       </c>
       <c r="M219" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="N219" t="inlineStr">
@@ -25805,7 +25805,7 @@
       </c>
       <c r="P219" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="Q219" t="inlineStr">
@@ -25837,10 +25837,10 @@
         <v>19</v>
       </c>
       <c r="W219" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X219" t="n">
-        <v>0</v>
+        <v>15.79</v>
       </c>
     </row>
     <row r="220">
@@ -25861,22 +25861,22 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
@@ -25896,22 +25896,22 @@
       </c>
       <c r="K220" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L220" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="M220" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="N220" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O220" t="inlineStr">
@@ -25921,7 +25921,7 @@
       </c>
       <c r="P220" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="Q220" t="inlineStr">
@@ -25941,7 +25941,7 @@
       </c>
       <c r="T220" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="U220" t="inlineStr">
@@ -25953,10 +25953,10 @@
         <v>19</v>
       </c>
       <c r="W220" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="X220" t="n">
-        <v>0</v>
+        <v>52.63</v>
       </c>
     </row>
     <row r="221">
@@ -25977,17 +25977,17 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
@@ -26007,12 +26007,12 @@
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K221" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L221" t="inlineStr">
@@ -26022,7 +26022,7 @@
       </c>
       <c r="M221" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="N221" t="inlineStr">
@@ -26069,10 +26069,10 @@
         <v>19</v>
       </c>
       <c r="W221" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="X221" t="n">
-        <v>0</v>
+        <v>31.58</v>
       </c>
     </row>
     <row r="222">
@@ -26103,7 +26103,7 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
@@ -26185,10 +26185,10 @@
         <v>19</v>
       </c>
       <c r="W222" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X222" t="n">
-        <v>0</v>
+        <v>5.26</v>
       </c>
     </row>
   </sheetData>
